--- a/data/PAL_2022_Fish larvae_Additional tow data_July 2023.xlsx
+++ b/data/PAL_2022_Fish larvae_Additional tow data_July 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palau\Research\PNMS Research\PICRC led PNMS Research\Tuna Reproduction\Tuna larvae research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrissy/PalauNationalMarineSanctuary/PNMS_2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C557F-4154-4016-B6D4-98A41DEAF3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C1F30-9CD7-C54D-9909-6C3476085BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plankton Master" sheetId="4" r:id="rId1"/>
@@ -158,57 +158,33 @@
     <t>N4_2</t>
   </si>
   <si>
-    <t>W1.1</t>
-  </si>
-  <si>
-    <t>W1.2</t>
-  </si>
-  <si>
     <t>PAL22_WA_1_S</t>
   </si>
   <si>
-    <t>WA.1</t>
-  </si>
-  <si>
     <t>10 16 2022</t>
   </si>
   <si>
     <t>PAL22_WA_2_S</t>
   </si>
   <si>
-    <t>WA.2</t>
-  </si>
-  <si>
     <t>PAL_W3_1_S</t>
   </si>
   <si>
-    <t>W3.1</t>
-  </si>
-  <si>
     <t>10 17 2022</t>
   </si>
   <si>
     <t>PAL22_W4_1_S</t>
   </si>
   <si>
-    <t>W4.1</t>
-  </si>
-  <si>
     <t>10 18 2022</t>
   </si>
   <si>
     <t>PAL22_W4_2_S</t>
   </si>
   <si>
-    <t>W4.2</t>
-  </si>
-  <si>
     <t>PAL22_W4_3_S</t>
   </si>
   <si>
-    <t>W4.3</t>
-  </si>
-  <si>
     <t>PAL22_W4_1_D</t>
   </si>
   <si>
@@ -224,21 +200,12 @@
     <t>PAL22_S2_2_S</t>
   </si>
   <si>
-    <t>S2.1</t>
-  </si>
-  <si>
-    <t>S2.2</t>
-  </si>
-  <si>
     <t>10 19 2022</t>
   </si>
   <si>
     <t>PAL22_S2_3_S</t>
   </si>
   <si>
-    <t>S2.3</t>
-  </si>
-  <si>
     <t>PAL22_S2_1_D</t>
   </si>
   <si>
@@ -254,21 +221,12 @@
     <t>PAL22_S3_2_S</t>
   </si>
   <si>
-    <t>S3.1</t>
-  </si>
-  <si>
-    <t>S3.2</t>
-  </si>
-  <si>
     <t>10 20 2022</t>
   </si>
   <si>
     <t>PAL22_S3_3_S</t>
   </si>
   <si>
-    <t>S3.3</t>
-  </si>
-  <si>
     <t>PAL22_S3_1_D</t>
   </si>
   <si>
@@ -284,21 +242,12 @@
     <t>PAL22_S4_2_S</t>
   </si>
   <si>
-    <t>S4.1</t>
-  </si>
-  <si>
-    <t>S4.2</t>
-  </si>
-  <si>
     <t>10 21 2022</t>
   </si>
   <si>
     <t>PAL22_S4_3_S</t>
   </si>
   <si>
-    <t>S4.3</t>
-  </si>
-  <si>
     <t>PAL22_S4_1_D</t>
   </si>
   <si>
@@ -315,15 +264,6 @@
   </si>
   <si>
     <t>PAL22_S1_3_S</t>
-  </si>
-  <si>
-    <t>S1.1</t>
-  </si>
-  <si>
-    <t>S1.2</t>
-  </si>
-  <si>
-    <t>S1.3</t>
   </si>
   <si>
     <t>10 22 2022</t>
@@ -377,6 +317,66 @@
   </si>
   <si>
     <t>Temperature_depth</t>
+  </si>
+  <si>
+    <t>W1_1</t>
+  </si>
+  <si>
+    <t>W1_2</t>
+  </si>
+  <si>
+    <t>WA_1</t>
+  </si>
+  <si>
+    <t>WA_2</t>
+  </si>
+  <si>
+    <t>W3_1</t>
+  </si>
+  <si>
+    <t>W4_1</t>
+  </si>
+  <si>
+    <t>W4_2</t>
+  </si>
+  <si>
+    <t>W4_3</t>
+  </si>
+  <si>
+    <t>S2_1</t>
+  </si>
+  <si>
+    <t>S2_2</t>
+  </si>
+  <si>
+    <t>S2_3</t>
+  </si>
+  <si>
+    <t>S3_1</t>
+  </si>
+  <si>
+    <t>S3_2</t>
+  </si>
+  <si>
+    <t>S3_3</t>
+  </si>
+  <si>
+    <t>S4_1</t>
+  </si>
+  <si>
+    <t>S4_2</t>
+  </si>
+  <si>
+    <t>S4_3</t>
+  </si>
+  <si>
+    <t>S1_1</t>
+  </si>
+  <si>
+    <t>S1_2</t>
+  </si>
+  <si>
+    <t>S1_3</t>
   </si>
 </sst>
 </file>
@@ -876,30 +876,29 @@
   </sheetPr>
   <dimension ref="A1:S1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12.8984375" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="7.59765625" customWidth="1"/>
+    <col min="15" max="19" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
@@ -922,7 +921,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -945,7 +944,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -968,25 +967,25 @@
         <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -994,7 +993,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1037,7 +1036,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1069,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1102,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1135,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1189,7 +1188,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1241,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1295,9 +1294,9 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
@@ -1328,9 +1327,9 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -1361,9 +1360,9 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -1394,7 +1393,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1447,7 +1446,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1553,9 +1552,9 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -1586,9 +1585,9 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>38</v>
@@ -1619,12 +1618,12 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C19" s="5">
         <v>44875</v>
@@ -1652,12 +1651,12 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5">
         <v>44875</v>
@@ -1685,15 +1684,15 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7">
@@ -1718,15 +1717,15 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7">
@@ -1751,15 +1750,15 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7">
@@ -1784,15 +1783,15 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7">
@@ -1817,15 +1816,15 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7">
@@ -1850,15 +1849,15 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7">
@@ -1883,15 +1882,15 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3">
         <v>8185</v>
@@ -1936,15 +1935,15 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3">
         <v>91956</v>
@@ -1989,15 +1988,15 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3">
         <v>97480</v>
@@ -2042,15 +2041,15 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7">
@@ -2075,15 +2074,15 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7">
@@ -2108,15 +2107,15 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7">
@@ -2141,15 +2140,15 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D33" s="3">
         <v>101573</v>
@@ -2194,15 +2193,15 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3">
         <v>111006</v>
@@ -2247,15 +2246,15 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3">
         <v>125847</v>
@@ -2300,15 +2299,15 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7">
@@ -2333,15 +2332,15 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="7">
@@ -2366,15 +2365,15 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7">
@@ -2399,15 +2398,15 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3">
         <v>135712</v>
@@ -2452,15 +2451,15 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D40" s="3">
         <v>148322</v>
@@ -2505,15 +2504,15 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D41" s="3">
         <v>160361</v>
@@ -2558,15 +2557,15 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7">
@@ -2591,15 +2590,15 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="7">
@@ -2624,15 +2623,15 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
@@ -2657,15 +2656,15 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3">
         <v>168580</v>
@@ -2710,15 +2709,15 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D46" s="3">
         <v>176295</v>
@@ -2763,15 +2762,15 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D47" s="3">
         <v>183883</v>
@@ -2816,15 +2815,15 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
@@ -2849,15 +2848,15 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="7">
@@ -2882,15 +2881,15 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7">
@@ -2915,15 +2914,15 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D51" s="3">
         <v>190811</v>
@@ -2968,15 +2967,15 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D52" s="3">
         <v>198562</v>
@@ -3021,15 +3020,15 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D53" s="3">
         <v>203846</v>
@@ -3074,9 +3073,9 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -3097,7 +3096,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3118,7 +3117,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3139,7 +3138,7 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3160,7 +3159,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3181,7 +3180,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3202,7 +3201,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3223,7 +3222,7 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3244,7 +3243,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3265,7 +3264,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3286,7 +3285,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3307,7 +3306,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3328,7 +3327,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3349,7 +3348,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3370,7 +3369,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3391,7 +3390,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3412,7 +3411,7 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3433,7 +3432,7 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3454,7 +3453,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3475,7 +3474,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3496,7 +3495,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3517,7 +3516,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3538,7 +3537,7 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3559,7 +3558,7 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3580,7 +3579,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3601,7 +3600,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3622,7 +3621,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3643,7 +3642,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3664,7 +3663,7 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3685,7 +3684,7 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3706,7 +3705,7 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3727,7 +3726,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3748,7 +3747,7 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3769,7 +3768,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3790,7 +3789,7 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3811,7 +3810,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3832,7 +3831,7 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3853,7 +3852,7 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3874,7 +3873,7 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3895,7 +3894,7 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3916,7 +3915,7 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3937,7 +3936,7 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3958,7 +3957,7 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3979,7 +3978,7 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4000,7 +3999,7 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4021,7 +4020,7 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4042,7 +4041,7 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4063,7 +4062,7 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4084,7 +4083,7 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4105,7 +4104,7 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4126,7 +4125,7 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4147,7 +4146,7 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4168,7 +4167,7 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4189,7 +4188,7 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4210,7 +4209,7 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4231,7 +4230,7 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4252,7 +4251,7 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4273,7 +4272,7 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4294,7 +4293,7 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4315,7 +4314,7 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4336,7 +4335,7 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4357,7 +4356,7 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4378,7 +4377,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4399,7 +4398,7 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4420,7 +4419,7 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4441,7 +4440,7 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4462,7 +4461,7 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4483,7 +4482,7 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4504,7 +4503,7 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4525,7 +4524,7 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4546,7 +4545,7 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4567,7 +4566,7 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4588,7 +4587,7 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4609,7 +4608,7 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4630,7 +4629,7 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4651,7 +4650,7 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4672,7 +4671,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4693,7 +4692,7 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4714,7 +4713,7 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4735,7 +4734,7 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4756,7 +4755,7 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4777,7 +4776,7 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4798,7 +4797,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4819,7 +4818,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4840,7 +4839,7 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4861,7 +4860,7 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4882,7 +4881,7 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4903,7 +4902,7 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4924,7 +4923,7 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4945,7 +4944,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4966,7 +4965,7 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4987,7 +4986,7 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5008,7 +5007,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5029,7 +5028,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5050,7 +5049,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5071,7 +5070,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5092,7 +5091,7 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5113,7 +5112,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5134,7 +5133,7 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5155,7 +5154,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5176,7 +5175,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5197,7 +5196,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5218,7 +5217,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5239,7 +5238,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5260,7 +5259,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5281,7 +5280,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5302,7 +5301,7 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5323,7 +5322,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5344,7 +5343,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5365,7 +5364,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5386,7 +5385,7 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5407,7 +5406,7 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5428,7 +5427,7 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5449,7 +5448,7 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5470,7 +5469,7 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5491,7 +5490,7 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5512,7 +5511,7 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5533,7 +5532,7 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5554,7 +5553,7 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5575,7 +5574,7 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5596,7 +5595,7 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5617,7 +5616,7 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5638,7 +5637,7 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5659,7 +5658,7 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5680,7 +5679,7 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5701,7 +5700,7 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5722,7 +5721,7 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5743,7 +5742,7 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5764,7 +5763,7 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5785,7 +5784,7 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5806,7 +5805,7 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5827,7 +5826,7 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5848,7 +5847,7 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5869,7 +5868,7 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5890,7 +5889,7 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5911,7 +5910,7 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5932,7 +5931,7 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5953,7 +5952,7 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5974,7 +5973,7 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
     </row>
-    <row r="192" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5995,7 +5994,7 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
     </row>
-    <row r="193" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6016,7 +6015,7 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
     </row>
-    <row r="194" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6037,7 +6036,7 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
     </row>
-    <row r="195" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6058,7 +6057,7 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
     </row>
-    <row r="196" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6079,7 +6078,7 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
     </row>
-    <row r="197" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6100,7 +6099,7 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
     </row>
-    <row r="198" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6121,7 +6120,7 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
     </row>
-    <row r="199" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6142,7 +6141,7 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
     </row>
-    <row r="200" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6163,7 +6162,7 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
     </row>
-    <row r="201" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6184,7 +6183,7 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
     </row>
-    <row r="202" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6205,7 +6204,7 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
     </row>
-    <row r="203" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6226,7 +6225,7 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
     </row>
-    <row r="204" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6247,7 +6246,7 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
     </row>
-    <row r="205" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6268,7 +6267,7 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
     </row>
-    <row r="206" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6289,7 +6288,7 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
     </row>
-    <row r="207" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6310,7 +6309,7 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
     </row>
-    <row r="208" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6331,7 +6330,7 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
     </row>
-    <row r="209" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6352,7 +6351,7 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
     </row>
-    <row r="210" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6373,7 +6372,7 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
     </row>
-    <row r="211" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6394,7 +6393,7 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
     </row>
-    <row r="212" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6415,7 +6414,7 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
     </row>
-    <row r="213" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6436,7 +6435,7 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6457,7 +6456,7 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
     </row>
-    <row r="215" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6478,7 +6477,7 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
     </row>
-    <row r="216" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6499,7 +6498,7 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
     </row>
-    <row r="217" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6520,7 +6519,7 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
     </row>
-    <row r="218" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6541,7 +6540,7 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
     </row>
-    <row r="219" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6562,7 +6561,7 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
     </row>
-    <row r="220" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6583,7 +6582,7 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
     </row>
-    <row r="221" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6604,7 +6603,7 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
     </row>
-    <row r="222" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6625,7 +6624,7 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
     </row>
-    <row r="223" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6646,7 +6645,7 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
     </row>
-    <row r="224" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6667,7 +6666,7 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
     </row>
-    <row r="225" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6688,7 +6687,7 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
     </row>
-    <row r="226" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6709,7 +6708,7 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
     </row>
-    <row r="227" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6730,7 +6729,7 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
     </row>
-    <row r="228" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6751,7 +6750,7 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
     </row>
-    <row r="229" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6772,7 +6771,7 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
     </row>
-    <row r="230" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6793,7 +6792,7 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
     </row>
-    <row r="231" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6814,7 +6813,7 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
     </row>
-    <row r="232" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6835,7 +6834,7 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
     </row>
-    <row r="233" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6856,7 +6855,7 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
     </row>
-    <row r="234" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6877,7 +6876,7 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
     </row>
-    <row r="235" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6898,7 +6897,7 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
     </row>
-    <row r="236" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6919,7 +6918,7 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
     </row>
-    <row r="237" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6940,7 +6939,7 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
     </row>
-    <row r="238" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6961,7 +6960,7 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
     </row>
-    <row r="239" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6982,7 +6981,7 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
     </row>
-    <row r="240" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7003,7 +7002,7 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
     </row>
-    <row r="241" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7024,7 +7023,7 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
     </row>
-    <row r="242" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7045,7 +7044,7 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
     </row>
-    <row r="243" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7066,7 +7065,7 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
     </row>
-    <row r="244" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7087,7 +7086,7 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
     </row>
-    <row r="245" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7108,7 +7107,7 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
     </row>
-    <row r="246" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7129,7 +7128,7 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
     </row>
-    <row r="247" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7150,7 +7149,7 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
     </row>
-    <row r="248" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7171,7 +7170,7 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
     </row>
-    <row r="249" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7192,7 +7191,7 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
     </row>
-    <row r="250" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7213,7 +7212,7 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
     </row>
-    <row r="251" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7234,7 +7233,7 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
     </row>
-    <row r="252" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7255,7 +7254,7 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
     </row>
-    <row r="253" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7276,7 +7275,7 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
     </row>
-    <row r="254" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7297,785 +7296,785 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
     </row>
-    <row r="255" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
